--- a/scoresheets/clean/Step_1/BMI.xlsx
+++ b/scoresheets/clean/Step_1/BMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/ALSPAC/Data Cleaning and Analysis/data_cleaning/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EA081-A8D4-8642-9302-FD2C21A95C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A477907-2C41-6548-972C-3DDF0C2C13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="760" windowWidth="30240" windowHeight="17040" xr2:uid="{88878F71-AD27-3543-8413-63F0DF4E887E}"/>
+    <workbookView xWindow="19180" yWindow="500" windowWidth="30240" windowHeight="17040" xr2:uid="{88878F71-AD27-3543-8413-63F0DF4E887E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="440">
   <si>
     <t>raw_vars</t>
   </si>
@@ -968,45 +968,6 @@
     <t>height_clinic.288</t>
   </si>
   <si>
-    <t>agewks_clinc.25</t>
-  </si>
-  <si>
-    <t>agewks_clinc.31</t>
-  </si>
-  <si>
-    <t>agewks_clinc.37</t>
-  </si>
-  <si>
-    <t>agewks_clinc.43</t>
-  </si>
-  <si>
-    <t>agewks_clinc.49</t>
-  </si>
-  <si>
-    <t>agewks_clinc.61</t>
-  </si>
-  <si>
-    <t>agewks_clinc.90</t>
-  </si>
-  <si>
-    <t>agewks_clinc.104</t>
-  </si>
-  <si>
-    <t>agewks_clinc.119</t>
-  </si>
-  <si>
-    <t>agewks_clinc.128</t>
-  </si>
-  <si>
-    <t>agewks_clinc.140</t>
-  </si>
-  <si>
-    <t>agewks_clinc.153</t>
-  </si>
-  <si>
-    <t>agewks_clinc.165</t>
-  </si>
-  <si>
     <t>agemos_clinic.90</t>
   </si>
   <si>
@@ -1274,258 +1235,12 @@
     <t>reporter_pub.204</t>
   </si>
   <si>
-    <t>bmiz_1990_clinic.25</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.31</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.37</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.43</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.49</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.61</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.90</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.104</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.119</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.128</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.140</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.153</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.165</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.186</t>
-  </si>
-  <si>
-    <t>bmiz_1990_clinic.214</t>
-  </si>
-  <si>
-    <t>weight_pub.115, weight_clinic.119</t>
-  </si>
-  <si>
-    <t>weight_pub.140, weight_clinic.140</t>
-  </si>
-  <si>
-    <t>weight_pub.157, weight_clinic.165</t>
-  </si>
-  <si>
-    <t>height_pub.115, height_clinic.119</t>
-  </si>
-  <si>
-    <t>bmi_pub.115, bmi_clinic.119</t>
-  </si>
-  <si>
-    <t>agemos_pub.115, agemos_clinic.119</t>
-  </si>
-  <si>
-    <t>height_pub.140, height_clinic.140</t>
-  </si>
-  <si>
-    <t>bmi_pub.140, bmi_clinic.140</t>
-  </si>
-  <si>
-    <t>agemos_pub.140, agemos_clinic.140</t>
-  </si>
-  <si>
-    <t>height_pub.157, height_clinic.165</t>
-  </si>
-  <si>
-    <t>agemos_pub.157, agemos_clinic.165</t>
-  </si>
-  <si>
-    <t>Best available weight age 9-9.9 years</t>
-  </si>
-  <si>
-    <t>Best available height age 9-9.9 years</t>
-  </si>
-  <si>
-    <t>Best available bmi age 9-9.9 years</t>
-  </si>
-  <si>
-    <t>Age at best available weight measurement age 9-9.9 years</t>
-  </si>
-  <si>
-    <t>Best available weight age 11-11.9 years</t>
-  </si>
-  <si>
-    <t>Best available height age 11-11.9 years</t>
-  </si>
-  <si>
-    <t>Best available bmi age 11-11.9 years</t>
-  </si>
-  <si>
-    <t>Age at best available weight measurement age 11-11.9 years</t>
-  </si>
-  <si>
-    <t>Best available weight age 13-13.9 years</t>
-  </si>
-  <si>
-    <t>Best available height age 13-13.9 years</t>
-  </si>
-  <si>
-    <t>Age at best available weight measurement age 13-13.9 years</t>
-  </si>
-  <si>
-    <t>if_else</t>
-  </si>
-  <si>
-    <t>as.numeric(weight_pub.115)</t>
-  </si>
-  <si>
-    <t>is.na(weight_clinic.119)</t>
-  </si>
-  <si>
-    <t>as.numeric(weight_clinic.119)</t>
-  </si>
-  <si>
-    <t>is.na(height_clinic.119)</t>
-  </si>
-  <si>
-    <t>as.numeric(height_pub.115)</t>
-  </si>
-  <si>
-    <t>as.numeric(height_clinic.119)</t>
-  </si>
-  <si>
-    <t>is.na(bmi_clinic.119)</t>
-  </si>
-  <si>
-    <t>as.numeric(bmi_pub.115)</t>
-  </si>
-  <si>
-    <t>as.numeric(bmi_clinic.119)</t>
-  </si>
-  <si>
-    <t>is.na(agemos_clinic.119)</t>
-  </si>
-  <si>
-    <t>as.numeric(agemos_pub.115)</t>
-  </si>
-  <si>
-    <t>as.numeric(agemos_clinic.119)</t>
-  </si>
-  <si>
-    <t>is.na(weight_clinic.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(height_pub.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(bmi_pub.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(agemos_pub.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(weight_pub.140)</t>
-  </si>
-  <si>
-    <t>is.na(agemos_clinic.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(agemos_clinic.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(weight_clinic.140)</t>
-  </si>
-  <si>
-    <t>is.na(height_clinic.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(height_clinic.140)</t>
-  </si>
-  <si>
-    <t>is.na(bmi_clinic.140)</t>
-  </si>
-  <si>
-    <t>as.numeric(bmi_clinic.140)</t>
-  </si>
-  <si>
-    <t>is.na(agemos_clinic.165)</t>
-  </si>
-  <si>
-    <t>as.numeric(agemos_clinic.165)</t>
-  </si>
-  <si>
-    <t>is.na(weight_clinic.165)</t>
-  </si>
-  <si>
-    <t>as.numeric(weight_clinic.165)</t>
-  </si>
-  <si>
-    <t>is.na(height_clinic.165)</t>
-  </si>
-  <si>
-    <t>as.numeric(height_clinic.165)</t>
-  </si>
-  <si>
-    <t>as.numeric(weight_pub.157)</t>
-  </si>
-  <si>
-    <t>as.numeric(height_pub.157)</t>
-  </si>
-  <si>
-    <t>as.numeric(agemos_pub.157)</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
     <t>bmi_clinic.186</t>
   </si>
   <si>
-    <t>weight_bestavail.120</t>
-  </si>
-  <si>
-    <t>height_bestavail.120</t>
-  </si>
-  <si>
-    <t>bmi_bestavail.120</t>
-  </si>
-  <si>
-    <t>agemos_bestavail.120</t>
-  </si>
-  <si>
-    <t>weight_bestavail.144</t>
-  </si>
-  <si>
-    <t>height_bestavail.144</t>
-  </si>
-  <si>
-    <t>bmi_bestavail.144</t>
-  </si>
-  <si>
-    <t>height_bestavail.168</t>
-  </si>
-  <si>
-    <t>agemos_bestavail.168</t>
-  </si>
-  <si>
-    <t>weight_bestavail.168</t>
-  </si>
-  <si>
-    <t>agemos_bestavail.144</t>
-  </si>
-  <si>
     <t>recode</t>
   </si>
   <si>
@@ -1547,32 +1262,107 @@
     <t>bmi_pub.157</t>
   </si>
   <si>
-    <t>bmi_pub.157, bmi_clinic.165</t>
-  </si>
-  <si>
-    <t>bmi_bestavail.168</t>
-  </si>
-  <si>
-    <t>Best available bmi age 13-13.9 years</t>
-  </si>
-  <si>
-    <t>is.na(bmi_clinic.165)</t>
-  </si>
-  <si>
-    <t>as.numeric(bmi_pub.157)</t>
-  </si>
-  <si>
-    <t>as.numeric(bmi_clinic.165)</t>
-  </si>
-  <si>
     <t>weight_clinic.186</t>
+  </si>
+  <si>
+    <t>agewks_clinic.25</t>
+  </si>
+  <si>
+    <t>agewks_clinic.31</t>
+  </si>
+  <si>
+    <t>agewks_clinic.37</t>
+  </si>
+  <si>
+    <t>agewks_clinic.43</t>
+  </si>
+  <si>
+    <t>agewks_clinic.49</t>
+  </si>
+  <si>
+    <t>agewks_clinic.61</t>
+  </si>
+  <si>
+    <t>agewks_clinic.90</t>
+  </si>
+  <si>
+    <t>agewks_clinic.140</t>
+  </si>
+  <si>
+    <t>agewks_clinic.153</t>
+  </si>
+  <si>
+    <t>agewks_clinic.165</t>
+  </si>
+  <si>
+    <t>agewks_clinic.104</t>
+  </si>
+  <si>
+    <t>agewks_clinic.119</t>
+  </si>
+  <si>
+    <t>agewks_clinic.128</t>
+  </si>
+  <si>
+    <t>height_pub.184</t>
+  </si>
+  <si>
+    <t>weight_pub.184</t>
+  </si>
+  <si>
+    <t>bmi_pub.184</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.214</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.25</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.31</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.37</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.43</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.49</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.61</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.90</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.104</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.119</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.128</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.140</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.153</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.165</t>
+  </si>
+  <si>
+    <t>bmiz1990_clinic.186</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1600,19 +1390,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1646,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1654,8 +1431,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,15 +1746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D3D87B-C7D5-7247-9F1F-30F65708CA79}">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="63.5" style="2" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
@@ -2025,7 +1800,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>408</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>214</v>
@@ -2059,6 +1834,9 @@
       <c r="A3" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>267</v>
       </c>
@@ -2091,6 +1869,9 @@
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>275</v>
       </c>
@@ -2123,6 +1904,9 @@
       <c r="A5" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>283</v>
       </c>
@@ -2197,16 +1981,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>498</v>
+      <c r="F7" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -2786,7 +2570,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>64</v>
@@ -2821,7 +2605,7 @@
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>180</v>
@@ -2856,7 +2640,7 @@
         <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>181</v>
@@ -2891,7 +2675,7 @@
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>313</v>
+        <v>412</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>182</v>
@@ -2926,7 +2710,7 @@
         <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>183</v>
@@ -2961,7 +2745,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>184</v>
@@ -2996,7 +2780,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>185</v>
@@ -3031,7 +2815,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>186</v>
@@ -3066,7 +2850,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>187</v>
@@ -3101,7 +2885,7 @@
         <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>188</v>
@@ -3136,7 +2920,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>189</v>
@@ -3171,7 +2955,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>190</v>
@@ -3206,7 +2990,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>191</v>
@@ -3241,7 +3025,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>75</v>
@@ -3276,7 +3060,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>192</v>
@@ -3311,7 +3095,7 @@
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>193</v>
@@ -3346,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>194</v>
@@ -3381,7 +3165,7 @@
         <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>195</v>
@@ -3416,7 +3200,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>196</v>
@@ -3451,7 +3235,7 @@
         <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>197</v>
@@ -3486,7 +3270,7 @@
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>198</v>
@@ -3521,7 +3305,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>199</v>
@@ -3556,7 +3340,7 @@
         <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>200</v>
@@ -3591,7 +3375,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>201</v>
@@ -3626,7 +3410,7 @@
         <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>202</v>
@@ -3661,7 +3445,7 @@
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>203</v>
@@ -3696,7 +3480,7 @@
         <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>204</v>
@@ -3731,7 +3515,7 @@
         <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>205</v>
@@ -3766,7 +3550,7 @@
         <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>206</v>
@@ -3801,7 +3585,7 @@
         <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>207</v>
@@ -3836,7 +3620,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>208</v>
@@ -3871,7 +3655,7 @@
         <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>209</v>
@@ -3906,7 +3690,7 @@
         <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>210</v>
@@ -3941,7 +3725,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>211</v>
@@ -3976,7 +3760,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>212</v>
@@ -4011,7 +3795,7 @@
         <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>213</v>
@@ -4046,7 +3830,7 @@
         <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>215</v>
@@ -4081,7 +3865,7 @@
         <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>216</v>
@@ -4116,7 +3900,7 @@
         <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>105</v>
@@ -4151,7 +3935,7 @@
         <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>217</v>
@@ -4186,7 +3970,7 @@
         <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>218</v>
@@ -4221,7 +4005,7 @@
         <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>219</v>
@@ -4256,7 +4040,7 @@
         <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>220</v>
@@ -4291,7 +4075,7 @@
         <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>221</v>
@@ -4326,7 +4110,7 @@
         <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>222</v>
@@ -4361,7 +4145,7 @@
         <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>223</v>
@@ -4396,7 +4180,7 @@
         <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>224</v>
@@ -4431,7 +4215,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>225</v>
@@ -4466,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>226</v>
@@ -4501,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>227</v>
@@ -4536,7 +4320,7 @@
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>228</v>
@@ -4571,7 +4355,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>229</v>
@@ -4606,7 +4390,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>230</v>
@@ -4641,7 +4425,7 @@
         <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>231</v>
@@ -4676,7 +4460,7 @@
         <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>120</v>
@@ -4711,7 +4495,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>232</v>
@@ -4746,7 +4530,7 @@
         <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>233</v>
@@ -4781,7 +4565,7 @@
         <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>234</v>
@@ -4816,7 +4600,7 @@
         <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>235</v>
@@ -4851,7 +4635,7 @@
         <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>236</v>
@@ -4886,7 +4670,7 @@
         <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>237</v>
@@ -4921,7 +4705,7 @@
         <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>238</v>
@@ -4956,7 +4740,7 @@
         <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>239</v>
@@ -4991,7 +4775,7 @@
         <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>240</v>
@@ -5026,7 +4810,7 @@
         <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>241</v>
@@ -5061,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>242</v>
@@ -5096,7 +4880,7 @@
         <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>243</v>
@@ -5131,7 +4915,7 @@
         <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>244</v>
@@ -5166,7 +4950,7 @@
         <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>245</v>
@@ -5201,7 +4985,7 @@
         <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>130</v>
@@ -5236,7 +5020,7 @@
         <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>246</v>
@@ -5271,7 +5055,7 @@
         <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>247</v>
@@ -5306,7 +5090,7 @@
         <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>248</v>
@@ -5341,7 +5125,7 @@
         <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>249</v>
@@ -5376,7 +5160,7 @@
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>250</v>
@@ -5411,7 +5195,7 @@
         <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>251</v>
@@ -5446,7 +5230,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>252</v>
@@ -5481,7 +5265,7 @@
         <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>253</v>
@@ -5516,7 +5300,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>140</v>
@@ -5551,7 +5335,7 @@
         <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>254</v>
@@ -5586,7 +5370,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>255</v>
@@ -5621,7 +5405,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>256</v>
@@ -5656,7 +5440,7 @@
         <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>257</v>
@@ -5691,7 +5475,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>258</v>
@@ -5726,7 +5510,7 @@
         <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>259</v>
@@ -5761,7 +5545,7 @@
         <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>260</v>
@@ -5796,7 +5580,7 @@
         <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>261</v>
@@ -5831,7 +5615,7 @@
         <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>150</v>
@@ -5866,7 +5650,7 @@
         <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>262</v>
@@ -5901,7 +5685,7 @@
         <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>263</v>
@@ -5936,7 +5720,7 @@
         <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>264</v>
@@ -5971,7 +5755,7 @@
         <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>265</v>
@@ -6006,7 +5790,7 @@
         <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>266</v>
@@ -6041,7 +5825,7 @@
         <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>268</v>
@@ -6076,7 +5860,7 @@
         <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>269</v>
@@ -6111,7 +5895,7 @@
         <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>160</v>
@@ -6146,7 +5930,7 @@
         <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>270</v>
@@ -6181,7 +5965,7 @@
         <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>271</v>
@@ -6216,7 +6000,7 @@
         <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>272</v>
@@ -6251,7 +6035,7 @@
         <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>273</v>
@@ -6286,7 +6070,7 @@
         <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>274</v>
@@ -6321,7 +6105,7 @@
         <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>276</v>
@@ -6356,7 +6140,7 @@
         <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>277</v>
@@ -6391,7 +6175,7 @@
         <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>168</v>
@@ -6426,7 +6210,7 @@
         <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>278</v>
@@ -6456,12 +6240,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>279</v>
@@ -6491,12 +6275,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>280</v>
@@ -6526,12 +6310,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>281</v>
@@ -6561,12 +6345,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>282</v>
@@ -6596,12 +6380,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>284</v>
@@ -6631,12 +6415,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>285</v>
@@ -6666,12 +6450,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>174</v>
@@ -6701,12 +6485,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>286</v>
@@ -6736,12 +6520,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>287</v>
@@ -6771,12 +6555,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>288</v>
@@ -6806,12 +6590,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>289</v>
@@ -6841,12 +6625,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>179</v>
@@ -6876,12 +6660,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>290</v>
@@ -6911,12 +6695,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>291</v>
@@ -6946,12 +6730,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>292</v>
@@ -6981,18 +6765,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>427</v>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",", TRUE,B6:B143)</f>
+        <v>id,sex,height_clinic.25,height_clinic.31,height_clinic.37,height_clinic.43,height_clinic.49,height_clinic.61,height_clinic.90,height_clinic.104,height_clinic.119,height_clinic.128,height_clinic.140,height_clinic.153,height_clinic.165,height_clinic.186,height_clinic.214,height_clinic.288,agewks_clinic.25,agewks_clinic.31,agewks_clinic.37,agewks_clinic.43,agewks_clinic.49,agewks_clinic.61,agewks_clinic.90,agewks_clinic.104,agewks_clinic.119,agewks_clinic.128,agewks_clinic.140,agewks_clinic.153,agewks_clinic.165,agemos_clinic.90,agemos_clinic.104,agemos_clinic.119,agemos_clinic.128,agemos_clinic.140,agemos_clinic.153,agemos_clinic.165,agemos_clinic.186,agemos_clinic.214,agemos_clinic.288,weight_clinic.25,weight_clinic.31,weight_clinic.37,weight_clinic.43,weight_clinic.49,weight_clinic.61,weight_clinic.90,weight_clinic.104,weight_clinic.119,weight_clinic.128,weight_clinic.140,weight_clinic.153,weight_clinic.165,weight_clinic.214,weight_clinic.288,bmi_clinic.25,bmi_clinic.31,bmi_clinic.37,bmi_clinic.43,bmi_clinic.49,bmi_clinic.61,bmi_clinic.90,bmi_clinic.104,bmi_clinic.119,bmi_clinic.128,bmi_clinic.140,bmi_clinic.153,bmi_clinic.165,bmi_clinic.186,bmi_clinic.214,bmi_clinic.288,bmiz1990_clinic.25,bmiz1990_clinic.31,bmiz1990_clinic.37,bmiz1990_clinic.43,bmiz1990_clinic.49,bmiz1990_clinic.61,bmiz1990_clinic.90,bmiz1990_clinic.104,bmiz1990_clinic.119,bmiz1990_clinic.128,bmiz1990_clinic.140,bmiz1990_clinic.153,bmiz1990_clinic.165,bmiz1990_clinic.186,bmiz1990_clinic.214,agewks_pub.97,agewks_pub.115,agewks_pub.128,agewks_pub.140,agewks_pub.157,agewks_pub.175,agewks_pub.184,agewks_pub.192,agewks_pub.204,agemos_pub.97,agemos_pub.115,agemos_pub.128,agemos_pub.140,agemos_pub.157,agemos_pub.175,agemos_pub.184,agemos_pub.192,agemos_pub.204,height_pub.97,height_pub.115,height_pub.128,height_pub.140,height_pub.157,height_pub.175,height_pub.192,height_pub.204,weight_pub.97,weight_pub.115,weight_pub.128,weight_pub.140,weight_pub.157,weight_pub.175,weight_pub.192,weight_pub.204,bmi_pub.97,bmi_pub.115,bmi_pub.128,bmi_pub.140,bmi_pub.157,bmi_pub.175,bmi_pub.192,bmi_pub.204,reporter_pub.97,reporter_pub.115,reporter_pub.128,reporter_pub.140,reporter_pub.157,reporter_pub.175,reporter_pub.184,reporter_pub.192,reporter_pub.204</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>485</v>
+        <v>12</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="E144" s="2">
         <v>2</v>
@@ -7003,413 +6788,25 @@
       <c r="G144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H144" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="I144" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>452</v>
+      <c r="H144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E145" s="2">
-        <v>2</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E146" s="2">
-        <v>2</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="J146" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E147" s="2">
-        <v>2</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="I147" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="J147" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E148" s="2">
-        <v>2</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E149" s="2">
-        <v>2</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="J149" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E150" s="2">
-        <v>2</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="I150" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J150" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E151" s="2">
-        <v>2</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="J151" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E152" s="2">
-        <v>2</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="J152" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E153" s="2">
-        <v>2</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E154" s="2">
-        <v>2</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="I154" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="J154" s="5" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E155" s="2">
-        <v>2</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(",", TRUE,B2:B155)</f>
-        <v>weight_clinic.186,id,sex,height_clinic.25,height_clinic.31,height_clinic.37,height_clinic.43,height_clinic.49,height_clinic.61,height_clinic.90,height_clinic.104,height_clinic.119,height_clinic.128,height_clinic.140,height_clinic.153,height_clinic.165,height_clinic.186,height_clinic.214,height_clinic.288,agewks_clinc.25,agewks_clinc.31,agewks_clinc.37,agewks_clinc.43,agewks_clinc.49,agewks_clinc.61,agewks_clinc.90,agewks_clinc.104,agewks_clinc.119,agewks_clinc.128,agewks_clinc.140,agewks_clinc.153,agewks_clinc.165,agemos_clinic.90,agemos_clinic.104,agemos_clinic.119,agemos_clinic.128,agemos_clinic.140,agemos_clinic.153,agemos_clinic.165,agemos_clinic.186,agemos_clinic.214,agemos_clinic.288,weight_clinic.25,weight_clinic.31,weight_clinic.37,weight_clinic.43,weight_clinic.49,weight_clinic.61,weight_clinic.90,weight_clinic.104,weight_clinic.119,weight_clinic.128,weight_clinic.140,weight_clinic.153,weight_clinic.165,weight_clinic.214,weight_clinic.288,bmi_clinic.25,bmi_clinic.31,bmi_clinic.37,bmi_clinic.43,bmi_clinic.49,bmi_clinic.61,bmi_clinic.90,bmi_clinic.104,bmi_clinic.119,bmi_clinic.128,bmi_clinic.140,bmi_clinic.153,bmi_clinic.165,bmi_clinic.186,bmi_clinic.214,bmi_clinic.288,bmiz_1990_clinic.25,bmiz_1990_clinic.31,bmiz_1990_clinic.37,bmiz_1990_clinic.43,bmiz_1990_clinic.49,bmiz_1990_clinic.61,bmiz_1990_clinic.90,bmiz_1990_clinic.104,bmiz_1990_clinic.119,bmiz_1990_clinic.128,bmiz_1990_clinic.140,bmiz_1990_clinic.153,bmiz_1990_clinic.165,bmiz_1990_clinic.186,bmiz_1990_clinic.214,agewks_pub.97,agewks_pub.115,agewks_pub.128,agewks_pub.140,agewks_pub.157,agewks_pub.175,agewks_pub.184,agewks_pub.192,agewks_pub.204,agemos_pub.97,agemos_pub.115,agemos_pub.128,agemos_pub.140,agemos_pub.157,agemos_pub.175,agemos_pub.184,agemos_pub.192,agemos_pub.204,height_pub.97,height_pub.115,height_pub.128,height_pub.140,height_pub.157,height_pub.175,height_pub.192,height_pub.204,weight_pub.97,weight_pub.115,weight_pub.128,weight_pub.140,weight_pub.157,weight_pub.175,weight_pub.192,weight_pub.204,bmi_pub.97,bmi_pub.115,bmi_pub.128,bmi_pub.140,bmi_pub.157,bmi_pub.175,bmi_pub.192,bmi_pub.204,reporter_pub.97,reporter_pub.115,reporter_pub.128,reporter_pub.140,reporter_pub.157,reporter_pub.175,reporter_pub.184,reporter_pub.192,reporter_pub.204,weight_bestavail.120,height_bestavail.120,bmi_bestavail.120,agemos_bestavail.120,weight_bestavail.144,height_bestavail.144,bmi_bestavail.144,agemos_bestavail.144,weight_bestavail.168,height_bestavail.168,bmi_bestavail.168,agemos_bestavail.168</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E156" s="2">
-        <v>3</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L156" s="2" t="s">
+      <c r="L144" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L156">
-    <sortCondition ref="E88:E156"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L144">
+    <sortCondition ref="E88:E144"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scoresheets/clean/Step_1/BMI.xlsx
+++ b/scoresheets/clean/Step_1/BMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/ALSPAC/Data Cleaning and Analysis/data_cleaning/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A477907-2C41-6548-972C-3DDF0C2C13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12507D8F-7FC8-E146-8CD0-FA9552D7AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="500" windowWidth="30240" windowHeight="17040" xr2:uid="{88878F71-AD27-3543-8413-63F0DF4E887E}"/>
+    <workbookView xWindow="0" yWindow="1160" windowWidth="25600" windowHeight="14480" xr2:uid="{88878F71-AD27-3543-8413-63F0DF4E887E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
